--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit1-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit1-Robo2.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2798346666666667</v>
+        <v>0.04332866666666666</v>
       </c>
       <c r="H2">
-        <v>0.839504</v>
+        <v>0.129986</v>
       </c>
       <c r="I2">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="J2">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="N2">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="O2">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="P2">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="Q2">
-        <v>0.5170961266506667</v>
+        <v>0.06087110061133332</v>
       </c>
       <c r="R2">
-        <v>4.653865139856</v>
+        <v>0.547839905502</v>
       </c>
       <c r="S2">
-        <v>0.3372259296582019</v>
+        <v>0.150345069194903</v>
       </c>
       <c r="T2">
-        <v>0.3372259296582018</v>
+        <v>0.150345069194903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2798346666666667</v>
+        <v>0.04332866666666666</v>
       </c>
       <c r="H3">
-        <v>0.839504</v>
+        <v>0.129986</v>
       </c>
       <c r="I3">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="J3">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.983909</v>
       </c>
       <c r="O3">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="P3">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="Q3">
-        <v>0.1850555045706667</v>
+        <v>0.02865337725266666</v>
       </c>
       <c r="R3">
-        <v>1.665499541136</v>
+        <v>0.257880395274</v>
       </c>
       <c r="S3">
-        <v>0.120684552350882</v>
+        <v>0.07077075890620187</v>
       </c>
       <c r="T3">
-        <v>0.120684552350882</v>
+        <v>0.07077075890620188</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2798346666666667</v>
+        <v>0.04332866666666666</v>
       </c>
       <c r="H4">
-        <v>0.839504</v>
+        <v>0.129986</v>
       </c>
       <c r="I4">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="J4">
-        <v>0.4621536754116699</v>
+        <v>0.2246397599897691</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="N4">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="O4">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="P4">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="Q4">
-        <v>0.006506435834666666</v>
+        <v>0.001426755221777778</v>
       </c>
       <c r="R4">
-        <v>0.058557922512</v>
+        <v>0.012840796996</v>
       </c>
       <c r="S4">
-        <v>0.004243193402586042</v>
+        <v>0.003523931888664278</v>
       </c>
       <c r="T4">
-        <v>0.004243193402586041</v>
+        <v>0.003523931888664279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.344612</v>
       </c>
       <c r="I5">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469368</v>
       </c>
       <c r="J5">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469369</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="N5">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="O5">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="P5">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="Q5">
-        <v>0.2122652547186667</v>
+        <v>0.1613782386093333</v>
       </c>
       <c r="R5">
-        <v>1.910387292468</v>
+        <v>1.452404147484</v>
       </c>
       <c r="S5">
-        <v>0.1384294798730825</v>
+        <v>0.3985868861676942</v>
       </c>
       <c r="T5">
-        <v>0.1384294798730825</v>
+        <v>0.3985868861676944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.344612</v>
       </c>
       <c r="I6">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469368</v>
       </c>
       <c r="J6">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469369</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.983909</v>
       </c>
       <c r="O6">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="P6">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="Q6">
         <v>0.07596431647866667</v>
@@ -818,10 +818,10 @@
         <v>0.6836788483080001</v>
       </c>
       <c r="S6">
-        <v>0.04954037735941955</v>
+        <v>0.1876236884601729</v>
       </c>
       <c r="T6">
-        <v>0.04954037735941954</v>
+        <v>0.187623688460173</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.344612</v>
       </c>
       <c r="I7">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469368</v>
       </c>
       <c r="J7">
-        <v>0.1897116659253159</v>
+        <v>0.5955530362469369</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="N7">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="O7">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="P7">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="Q7">
-        <v>0.002670857870666667</v>
+        <v>0.003782537892444445</v>
       </c>
       <c r="R7">
-        <v>0.024037720836</v>
+        <v>0.034042841032</v>
       </c>
       <c r="S7">
-        <v>0.00174180869281383</v>
+        <v>0.009342461619069549</v>
       </c>
       <c r="T7">
-        <v>0.001741808692813829</v>
+        <v>0.009342461619069551</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.210796</v>
+        <v>0.03468133333333333</v>
       </c>
       <c r="H8">
-        <v>0.6323880000000001</v>
+        <v>0.104044</v>
       </c>
       <c r="I8">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="J8">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.847863</v>
+        <v>1.404869</v>
       </c>
       <c r="N8">
-        <v>5.543589</v>
+        <v>4.214607</v>
       </c>
       <c r="O8">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235921</v>
       </c>
       <c r="P8">
-        <v>0.7296835394802672</v>
+        <v>0.6692718564235923</v>
       </c>
       <c r="Q8">
-        <v>0.389522128948</v>
+        <v>0.04872273007866667</v>
       </c>
       <c r="R8">
-        <v>3.505699160532</v>
+        <v>0.438504570708</v>
       </c>
       <c r="S8">
-        <v>0.2540281299489829</v>
+        <v>0.1203399010609949</v>
       </c>
       <c r="T8">
-        <v>0.2540281299489829</v>
+        <v>0.120339901060995</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.210796</v>
+        <v>0.03468133333333333</v>
       </c>
       <c r="H9">
-        <v>0.6323880000000001</v>
+        <v>0.104044</v>
       </c>
       <c r="I9">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="J9">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.983909</v>
       </c>
       <c r="O9">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808892</v>
       </c>
       <c r="P9">
-        <v>0.261135113213977</v>
+        <v>0.3150411080808893</v>
       </c>
       <c r="Q9">
-        <v>0.139400027188</v>
+        <v>0.02293486977733333</v>
       </c>
       <c r="R9">
-        <v>1.254600244692</v>
+        <v>0.206413827996</v>
       </c>
       <c r="S9">
-        <v>0.09091018350367545</v>
+        <v>0.05664666071451439</v>
       </c>
       <c r="T9">
-        <v>0.09091018350367545</v>
+        <v>0.0566466607145144</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.210796</v>
+        <v>0.03468133333333333</v>
       </c>
       <c r="H10">
-        <v>0.6323880000000001</v>
+        <v>0.104044</v>
       </c>
       <c r="I10">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="J10">
-        <v>0.3481346586630142</v>
+        <v>0.1798072037632941</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.023251</v>
+        <v>0.03292866666666667</v>
       </c>
       <c r="N10">
-        <v>0.069753</v>
+        <v>0.098786</v>
       </c>
       <c r="O10">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="P10">
-        <v>0.009181347305755726</v>
+        <v>0.01568703549551856</v>
       </c>
       <c r="Q10">
-        <v>0.004901217796</v>
+        <v>0.001142010064888889</v>
       </c>
       <c r="R10">
-        <v>0.044110960164</v>
+        <v>0.010278090584</v>
       </c>
       <c r="S10">
-        <v>0.003196345210355855</v>
+        <v>0.002820641987784732</v>
       </c>
       <c r="T10">
-        <v>0.003196345210355855</v>
+        <v>0.002820641987784732</v>
       </c>
     </row>
   </sheetData>
